--- a/~D2 Log Final.xlsx
+++ b/~D2 Log Final.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernesto/Documents/Azur Lane/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernesto/Documents/Azur Lane/2019 D2 Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327E31BD-27AD-1A41-9C09-A0D4EFD5DD05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B37CD-7384-EF4C-A336-2C1A3CF8E82E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{F60A146E-BC44-5D43-BA79-5E1FA0617781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Siren Upper Bound</t>
+  </si>
+  <si>
+    <t>Graf</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06582A3D-648B-F84A-B6F8-0F1B735A0C83}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +547,7 @@
         <v>500</v>
       </c>
       <c r="F2" s="1">
-        <f>E2*3</f>
+        <f t="shared" ref="F2:F8" si="0">E2*3</f>
         <v>1500</v>
       </c>
     </row>
@@ -565,7 +568,7 @@
         <v>250</v>
       </c>
       <c r="F3" s="1">
-        <f>E3*3</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
     </row>
@@ -586,7 +589,7 @@
         <v>655</v>
       </c>
       <c r="F4" s="1">
-        <f>E4*3</f>
+        <f t="shared" si="0"/>
         <v>1965</v>
       </c>
     </row>
@@ -607,7 +610,7 @@
         <v>383</v>
       </c>
       <c r="F5" s="1">
-        <f>E5*3</f>
+        <f t="shared" si="0"/>
         <v>1149</v>
       </c>
     </row>
@@ -628,7 +631,7 @@
         <v>453</v>
       </c>
       <c r="F6" s="1">
-        <f>E6*3</f>
+        <f t="shared" si="0"/>
         <v>1359</v>
       </c>
     </row>
@@ -649,7 +652,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="1">
-        <f>E7*3</f>
+        <f t="shared" si="0"/>
         <v>408</v>
       </c>
     </row>
@@ -670,257 +673,278 @@
         <v>161</v>
       </c>
       <c r="F8" s="1">
-        <f>E8*3</f>
+        <f t="shared" si="0"/>
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <f>B2+B3+B4+B5+B6+B7+B8</f>
-        <v>79</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(B2:B8)</f>
-        <v>11.285714285714286</v>
-      </c>
-      <c r="D10" s="1">
-        <f>_xlfn.STDEV.S(B2:B8)/(SQRT(COUNTA(B2:B8)))</f>
-        <v>3.3996798568764821</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1">
+        <f>E9*3</f>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <f>C2+C3+C4+C5+C6+C7+C8</f>
-        <v>103</v>
+        <f>B2+B3+B4+B5+B6+B7+B8+B9</f>
+        <v>83</v>
       </c>
       <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>14.714285714285714</v>
+        <f>AVERAGE(B2:B9)</f>
+        <v>10.375</v>
       </c>
       <c r="D11" s="1">
-        <f>_xlfn.STDEV.S(C2:C8)/(SQRT(COUNTA(C2:C8)))</f>
-        <v>3.8527311630797683</v>
+        <f>_xlfn.STDEV.S(B2:B8)/(SQRT(COUNTA(B2:B9)))</f>
+        <v>3.1801093122871165</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <f>D2+D3+D4+D5+D6+D7+D8</f>
-        <v>136</v>
+        <f>C2+C3+C4+C5+C6+C7+C8+C9</f>
+        <v>103</v>
       </c>
       <c r="C12" s="1">
-        <f>AVERAGE(D2:D8)</f>
-        <v>19.428571428571427</v>
+        <f>AVERAGE(C2:C9)</f>
+        <v>12.875</v>
       </c>
       <c r="D12" s="1">
-        <f>_xlfn.STDEV.S(D2:D8)/(SQRT(COUNTA(D2:D8)))</f>
-        <v>4.7200541908569074</v>
+        <f>_xlfn.STDEV.S(C2:C8)/(SQRT(COUNTA(C2:C9)))</f>
+        <v>3.603900003897893</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <f>E2+E3+E4+E5+E6+E7+E8</f>
-        <v>2538</v>
+        <f>D2+D3+D4+D5+D6+D7+D8+D9</f>
+        <v>138</v>
       </c>
       <c r="C13" s="1">
-        <f>AVERAGE(E2:E8)</f>
-        <v>362.57142857142856</v>
+        <f>AVERAGE(D2:D9)</f>
+        <v>17.25</v>
       </c>
       <c r="D13" s="1">
-        <f>_xlfn.STDEV.S(E2:E8)/(SQRT(COUNTA(E2:E8)))</f>
-        <v>71.984408742732725</v>
+        <f>_xlfn.STDEV.S(D2:D8)/(SQRT(COUNTA(D2:D9)))</f>
+        <v>4.4152064072982613</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <f>E2+E3+E4+E5+E6+E7+E8+E9</f>
+        <v>2586</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(E2:E9)</f>
+        <v>323.25</v>
+      </c>
+      <c r="D14" s="1">
+        <f>_xlfn.STDEV.S(E2:E8)/(SQRT(COUNTA(E2:E9)))</f>
+        <v>67.335248676200152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <f>B13*3</f>
-        <v>7614</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B15" s="1">
+        <f>B14*3</f>
+        <v>7758</v>
+      </c>
+      <c r="C15" s="1">
         <f>AVERAGE(F2:F8)</f>
         <v>1087.7142857142858</v>
       </c>
-      <c r="D14" s="1">
-        <f>_xlfn.STDEV.S(F2:F8)/(SQRT(COUNTA(F2:F8)))</f>
-        <v>215.95322622819816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f>B10/B13*100&amp;"%"</f>
-        <v>3.11268715524035%</v>
-      </c>
-      <c r="C16" s="1">
-        <f>_xlfn.CONFIDENCE.T(0.05,D10,B13)</f>
-        <v>0.13232671988616956</v>
-      </c>
-      <c r="D16" s="1">
-        <f>ROUNDUP((B10/B13*100),2)</f>
-        <v>3.1199999999999997</v>
-      </c>
-      <c r="E16" s="1">
-        <f>ROUNDUP(C16,2)</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>B11/B13*100&amp;"%"</f>
-        <v>4.05831363278172%</v>
-      </c>
-      <c r="C17" s="1">
-        <f>_xlfn.CONFIDENCE.T(0.05,D11,B13)</f>
-        <v>0.14996096658406491</v>
-      </c>
-      <c r="D17" s="1">
-        <f>ROUNDUP((B11/B13*100),2)</f>
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="E17" s="1">
-        <f>ROUNDUP(C17,2)</f>
-        <v>0.15000000000000002</v>
+      <c r="D15" s="1">
+        <f>_xlfn.STDEV.S(F2:F8)/(SQRT(COUNTA(F2:F9)))</f>
+        <v>202.00574602860041</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>B12/B14*100&amp;"%"</f>
-        <v>1.78618334646703%</v>
+        <f>B11/B14*100&amp;"%"</f>
+        <v>3.20959010054138%</v>
       </c>
       <c r="C18" s="1">
-        <f>_xlfn.CONFIDENCE.T(0.05,D12,B14)</f>
-        <v>0.10603706340562849</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D11,B14)</f>
+        <v>0.12262507142847452</v>
       </c>
       <c r="D18" s="1">
-        <f>ROUNDUP((B12/B14*100),2)</f>
-        <v>1.79</v>
+        <f>ROUNDUP((B11/B14*100),2)</f>
+        <v>3.21</v>
       </c>
       <c r="E18" s="1">
         <f>ROUNDUP(C18,2)</f>
-        <v>0.11</v>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>B12/B14*100&amp;"%"</f>
+        <v>3.98298530549111%</v>
+      </c>
+      <c r="C19" s="1">
+        <f>_xlfn.CONFIDENCE.T(0.05,D12,B14)</f>
+        <v>0.13896644800591032</v>
+      </c>
+      <c r="D19" s="1">
+        <f>ROUNDUP((B12/B14*100),2)</f>
+        <v>3.9899999999999998</v>
+      </c>
+      <c r="E19" s="1">
+        <f>ROUNDUP(C19,2)</f>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>B13/B15*100&amp;"%"</f>
+        <v>1.77880897138438%</v>
+      </c>
+      <c r="C20" s="1">
+        <f>_xlfn.CONFIDENCE.T(0.05,D13,B15)</f>
+        <v>9.8263444793552895E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <f>ROUNDUP((B13/B15*100),2)</f>
+        <v>1.78</v>
+      </c>
+      <c r="E20" s="1">
+        <f>ROUNDUP(C20,2)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <f>D16+E16</f>
-        <v>3.26</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B22" s="1">
+        <f>D18+E18</f>
+        <v>3.34</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1">
-        <f>D17+E17</f>
-        <v>4.21</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D22" s="1">
+        <f>D19+E19</f>
+        <v>4.13</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1">
-        <f>D18+E18</f>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="F22" s="1">
+        <f>D20+E20</f>
+        <v>1.8800000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <f>D16-E16</f>
-        <v>2.9799999999999995</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B23" s="1">
+        <f>D18-E18</f>
+        <v>3.08</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1">
-        <f>D17-E17</f>
-        <v>3.9099999999999997</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D23" s="1">
+        <f>D19-E19</f>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="1">
-        <f>D18-E18</f>
+      <c r="F23" s="1">
+        <f>D20-E20</f>
         <v>1.68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f>D16+D17&amp;"%"</f>
-        <v>7.18%</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>D18&amp;"%"</f>
-        <v>1.79%</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f>B21+D21&amp;"%"</f>
-        <v>6.89%</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f>F21&amp;"%"</f>
-        <v>1.68%</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>B20+D20&amp;"%"</f>
-        <v>7.47%</v>
+        <f>D18+D19&amp;"%"</f>
+        <v>7.2%</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>F20&amp;"%"</f>
-        <v>1.9%</v>
+        <f>D20&amp;"%"</f>
+        <v>1.78%</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>B23+D23&amp;"%"</f>
+        <v>6.93%</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>F23&amp;"%"</f>
+        <v>1.68%</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>B22+D22&amp;"%"</f>
+        <v>7.47%</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>F22&amp;"%"</f>
+        <v>1.88%</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B30" s="2">
         <v>0.56589999999999996</v>
       </c>
     </row>
